--- a/data/view_implications.xlsx
+++ b/data/view_implications.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Course Implications" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Domain Implications" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Common Implications" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Domain Implications" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3293,6 +3294,157 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Implications</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Domains Most Affected</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Potential bias in AI algorithms</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Computer Science &amp; Data, Engineering &amp; Technology, Applied Sciences &amp; Vocational Fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Job displacement due to automation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Business &amp; Economics, Engineering &amp; Technology, Applied Sciences &amp; Vocational Fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Data privacy concerns</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Computer Science &amp; Data, Medical &amp; Health Sciences, Business &amp; Economics</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lack of transparency in AI decision-making</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computer Science &amp; Data, Engineering &amp; Technology, Business &amp; Economics</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ethical considerations in autonomous systems</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Technology, Computer Science &amp; Data, Design &amp; Creative Arts</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Security vulnerabilities in AI systems</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Science &amp; Data, Engineering &amp; Technology, Applied Sciences &amp; Vocational Fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dependence on data quality and availability</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Computer Science &amp; Data, Natural Sciences, Engineering &amp; Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Need for human oversight and control</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Technology, Medical &amp; Health Sciences, Business &amp; Economics</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Algorithmic accountability and responsibility</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Computer Science &amp; Data, Business &amp; Economics, Engineering &amp; Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Impact on human autonomy and decision-making</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Business &amp; Economics, Design &amp; Creative Arts, Medical &amp; Health Sciences</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,22 +3493,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Privacy, Bias in Diagnosis, Informed Consent</t>
+          <t>Data Privacy, Bias in Diagnosis, Access to Healthcare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Protection, Liability, Regulations</t>
+          <t>Data Protection, Liability, Regulation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Improved Healthcare Access, Patient Trust, Job Displacement</t>
+          <t>Improved Diagnosis, Personalized Treatment, Accessibility</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Improved Diagnosis, Personalized Treatment, Drug Discovery</t>
+          <t>Drug Discovery, Remote Monitoring, Precision Medicine</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3405,27 +3557,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Environmental Impact, Data Misinterpretation, Research Integrity</t>
+          <t>Environmental Impact, Data Integrity, Responsible Innovation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Regulations, Intellectual Property, Data Sharing</t>
+          <t>Data Governance, Intellectual Property, Environmental Regulations</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Public Trust, Scientific Advancement, Environmental Monitoring</t>
+          <t>Public Trust, Scientific Advancement, Resource Management</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Scientific Discovery, Environmental Protection, Resource Management</t>
+          <t>Scientific Discovery, Modeling, Prediction</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Misinterpretation of Data, Environmental Damage, Unintended Consequences</t>
+          <t>Unintended Consequences, Misinterpretation, Environmental Damage</t>
         </is>
       </c>
     </row>
@@ -3437,91 +3589,91 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Authenticity, Copyright Infringement, Bias in Content</t>
+          <t>Authenticity, Intellectual Property, Cultural Appropriation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Copyright Law, Intellectual Property, Licensing</t>
+          <t>Copyright, Licensing, Fair Use</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Creative Expression, Cultural Impact, Accessibility</t>
+          <t>Creative Expression, Accessibility, Cultural Preservation</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enhanced Creativity, Personalized Experiences, New Forms of Art</t>
+          <t>Enhanced Creativity, User Experience, Visual Communication</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Job Displacement, Misuse of AI, Loss of Authenticity</t>
+          <t>Misrepresentation, Plagiarism, Bias</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Computer Science &amp; Data</t>
+          <t>Applied Sciences &amp; Vocational Fields</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Algorithmic Bias, Data Privacy, Transparency</t>
+          <t>Bias in Training, Job Displacement, Safety</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Data Protection, Liability, Regulations</t>
+          <t>Liability, Certification, Standards</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Job Displacement, Efficiency, Accessibility</t>
+          <t>Skill Development, Job Creation, Accessibility</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Improved Efficiency, Automation, Data Analysis</t>
+          <t>Improved Efficiency, Safety, Skill Enhancement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Job Losses, System Failures, Misuse</t>
+          <t>Job Losses, Deskilling, Bias</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Applied Sciences &amp; Vocational Fields</t>
+          <t>Computer Science &amp; Data</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bias in Training, Job Displacement, Safety</t>
+          <t>Algorithmic Bias, Data Privacy, Transparency</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Regulations, Liability, Standards</t>
+          <t>Data Protection, Liability, Intellectual Property</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Job Displacement, Efficiency, Skill Enhancement</t>
+          <t>Job Displacement, Accessibility, Digital Divide</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Improved Efficiency, Automation, Skill Development</t>
+          <t>Improved Efficiency, Automation, Data Analysis</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Job Losses, System Failures, Safety Risks</t>
+          <t>Job Losses, Bias, Surveillance</t>
         </is>
       </c>
     </row>
@@ -3538,22 +3690,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Regulations, Liability, Data Protection</t>
+          <t>Data Protection, Antitrust, Consumer Protection</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Job Displacement, Efficiency, Economic Inequality</t>
+          <t>Job Displacement, Economic Inequality, Efficiency</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Improved Efficiency, Automation, Data-Driven Decisions</t>
+          <t>Improved Efficiency, Automation, Market Analysis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Job Losses, Market Manipulation, Biased Decisions</t>
+          <t>Job Losses, Bias, Market Instability</t>
         </is>
       </c>
     </row>
@@ -3570,22 +3722,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data Protection, Ethical Guidelines, Research Integrity</t>
+          <t>Data Protection, Ethical Guidelines, Freedom of Speech</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Public Opinion, Social Inequality, Cultural Impact</t>
+          <t>Public Opinion, Social Justice, Cultural Understanding</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Improved Research, Data Analysis, Understanding Society</t>
+          <t>Improved Understanding, Policy Making, Social Change</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Misinterpretation of Data, Social Manipulation, Biased Research</t>
+          <t>Misinformation, Bias, Manipulation</t>
         </is>
       </c>
     </row>
